--- a/BaoCao_DuAn/TestCase.xlsx
+++ b/BaoCao_DuAn/TestCase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Zalo Received Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\source\repos\GUI_QLCafe\BaoCao_DuAn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A20729-6C04-45EE-B18A-79FE4EA944DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C270F-6775-482C-8CA9-279D8614A654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,11 +841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101:F103"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="2"/>
     <col min="4" max="4" width="31.5546875" style="2" customWidth="1"/>
@@ -905,7 +905,7 @@
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="3:12" ht="21.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
@@ -928,9 +928,7 @@
       <c r="J6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K6" s="15"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
@@ -980,9 +978,7 @@
       <c r="J9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K9" s="15"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
@@ -997,7 +993,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="3:12" ht="67.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:12" ht="67.650000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="5"/>
@@ -1032,9 +1028,7 @@
       <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K12" s="15"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.3">
@@ -1098,9 +1092,7 @@
       <c r="J16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K16" s="15"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
@@ -1115,7 +1107,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="3:12" ht="42.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
@@ -1150,9 +1142,7 @@
       <c r="J19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K19" s="15"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.3">
@@ -1167,7 +1157,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="3:12" ht="71.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
@@ -1216,9 +1206,7 @@
       <c r="J23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K23" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K23" s="15"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.3">
@@ -1268,9 +1256,7 @@
       <c r="J26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K26" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K26" s="15"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.3">
@@ -1285,7 +1271,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="3:12" ht="70.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="8"/>
       <c r="D28" s="11"/>
       <c r="E28" s="5"/>
@@ -1334,9 +1320,7 @@
       <c r="J30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K30" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K30" s="15"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.3">
@@ -1351,7 +1335,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="3:12" ht="150.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="5"/>
@@ -1382,9 +1366,7 @@
       <c r="J33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K33" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K33" s="15"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
@@ -1399,7 +1381,7 @@
       <c r="K34" s="7"/>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="3:12" ht="132.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="5"/>
@@ -1500,9 +1482,7 @@
       <c r="J40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K40" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K40" s="15"/>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
@@ -1552,9 +1532,7 @@
       <c r="J43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K43" s="15"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.3">
@@ -1569,7 +1547,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="3:12" ht="56.3" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="8"/>
       <c r="D45" s="11"/>
       <c r="E45" s="5"/>
@@ -1604,9 +1582,7 @@
       <c r="J46" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K46" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K46" s="15"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.3">
@@ -1656,9 +1632,7 @@
       <c r="J49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K49" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K49" s="15"/>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
@@ -1722,9 +1696,7 @@
       <c r="J53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K53" s="15"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
@@ -1751,7 +1723,7 @@
       <c r="K55" s="8"/>
       <c r="L55" s="5"/>
     </row>
-    <row r="56" spans="3:12" ht="16.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="6" t="s">
         <v>70</v>
       </c>
@@ -1774,9 +1746,7 @@
       <c r="J56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K56" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K56" s="15"/>
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
@@ -1826,9 +1796,7 @@
       <c r="J59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K59" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K59" s="15"/>
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
@@ -1855,7 +1823,7 @@
       <c r="K61" s="8"/>
       <c r="L61" s="5"/>
     </row>
-    <row r="62" spans="3:12" ht="16.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="6" t="s">
         <v>77</v>
       </c>
@@ -1878,9 +1846,7 @@
       <c r="J62" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K62" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K62" s="15"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="3:12" x14ac:dyDescent="0.3">
@@ -1944,9 +1910,7 @@
       <c r="J66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K66" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K66" s="15"/>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.3">
@@ -1996,9 +1960,7 @@
       <c r="J69" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K69" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K69" s="15"/>
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
@@ -2048,9 +2010,7 @@
       <c r="J72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K72" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K72" s="15"/>
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.3">
@@ -2100,9 +2060,7 @@
       <c r="J75" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="K75" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K75" s="15"/>
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.3">
@@ -2166,9 +2124,7 @@
       <c r="J79" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K79" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K79" s="15"/>
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="3:12" x14ac:dyDescent="0.3">
@@ -2218,9 +2174,7 @@
       <c r="J82" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K82" s="15"/>
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="3:12" x14ac:dyDescent="0.3">
@@ -2270,9 +2224,7 @@
       <c r="J85" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K85" s="15"/>
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="3:12" x14ac:dyDescent="0.3">
@@ -2322,9 +2274,7 @@
       <c r="J88" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K88" s="15"/>
       <c r="L88" s="3"/>
     </row>
     <row r="89" spans="3:12" x14ac:dyDescent="0.3">
@@ -2388,9 +2338,7 @@
       <c r="J92" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K92" s="15"/>
       <c r="L92" s="3"/>
     </row>
     <row r="93" spans="3:12" x14ac:dyDescent="0.3">
@@ -2440,9 +2388,7 @@
       <c r="J95" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K95" s="15"/>
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="3:12" x14ac:dyDescent="0.3">
@@ -2492,9 +2438,7 @@
       <c r="J98" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K98" s="15"/>
       <c r="L98" s="3"/>
     </row>
     <row r="99" spans="3:12" x14ac:dyDescent="0.3">
@@ -2544,9 +2488,7 @@
       <c r="J101" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="K101" s="15">
-        <v>45390</v>
-      </c>
+      <c r="K101" s="15"/>
       <c r="L101" s="3"/>
     </row>
     <row r="102" spans="3:12" x14ac:dyDescent="0.3">
@@ -2898,7 +2840,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
